--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E488314-0852-4CC4-A8E5-869C7502AAC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A76100E-7A4C-4446-8D86-0065648F7C47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Feature</t>
   </si>
@@ -56,6 +56,27 @@
   </si>
   <si>
     <t>_dharwin - Reddit /r/dnd</t>
+  </si>
+  <si>
+    <t>Nitrogen06 - Reddit /r/rpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fate Dice </t>
+  </si>
+  <si>
+    <t>Have a custom type of dice that rolls between -1 and 1</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>1.3.0</t>
+  </si>
+  <si>
+    <t>joethomp - Reddit /r/rpg</t>
+  </si>
+  <si>
+    <t>UraniumKnight - Reddit /r/rpg</t>
   </si>
 </sst>
 </file>
@@ -373,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,10 +406,11 @@
     <col min="2" max="2" width="104.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,18 +424,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -424,7 +455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -433,6 +464,20 @@
       </c>
       <c r="D4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A76100E-7A4C-4446-8D86-0065648F7C47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187E496F-36F9-46F0-B50D-CB64EA6AAD7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Feature</t>
   </si>
@@ -77,6 +77,36 @@
   </si>
   <si>
     <t>UraniumKnight - Reddit /r/rpg</t>
+  </si>
+  <si>
+    <t>Have per die modifiers</t>
+  </si>
+  <si>
+    <t>Instead of having a single modifier that is on a per roll basis, have it on a per die basis</t>
+  </si>
+  <si>
+    <t>When you have many different saved rolls it can be overwhelming, groups of rolls would be nice</t>
+  </si>
+  <si>
+    <t>Add Color</t>
+  </si>
+  <si>
+    <t>Having all the dice be in gray scale is not fun to look at</t>
+  </si>
+  <si>
+    <t>Kris Fiala</t>
+  </si>
+  <si>
+    <t>Roll groupings</t>
+  </si>
+  <si>
+    <t>Roll Variants</t>
+  </si>
+  <si>
+    <t>Allow for setting variant versions of a roll, i.e. d6 vs d6(poison) vs d6(green)</t>
+  </si>
+  <si>
+    <t>Weston Fiala</t>
   </si>
 </sst>
 </file>
@@ -394,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,7 +440,7 @@
     <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -438,46 +468,90 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187E496F-36F9-46F0-B50D-CB64EA6AAD7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFB6EDD-1F28-4647-9127-F91ECD5F0BFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFB6EDD-1F28-4647-9127-F91ECD5F0BFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46981174-3464-42E5-9FB9-21C8137CC16F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Feature</t>
   </si>
@@ -107,6 +107,21 @@
   </si>
   <si>
     <t>Weston Fiala</t>
+  </si>
+  <si>
+    <t>User Profiles</t>
+  </si>
+  <si>
+    <t>BlankTheorist - Reddit /r/dnd</t>
+  </si>
+  <si>
+    <t>Allow for saving custom rolls into a user profile so that they do not bleed into other rolls</t>
+  </si>
+  <si>
+    <t>Roll Negative Die</t>
+  </si>
+  <si>
+    <t>In order to roll with Bane, I need to roll a negative d4. Right now you can only roll positively</t>
   </si>
 </sst>
 </file>
@@ -424,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,6 +518,12 @@
       <c r="B5" t="s">
         <v>21</v>
       </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -551,6 +572,28 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46981174-3464-42E5-9FB9-21C8137CC16F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F63356-897E-421B-814D-899D26EC02A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$12</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Feature</t>
   </si>
@@ -122,6 +125,21 @@
   </si>
   <si>
     <t>In order to roll with Bane, I need to roll a negative d4. Right now you can only roll positively</t>
+  </si>
+  <si>
+    <t>1.5.0</t>
+  </si>
+  <si>
+    <t>Restore history button</t>
+  </si>
+  <si>
+    <t>Removing all the history on accident can be a pain. Is it possible to restore that with a button somewhere?</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>Bart van den Hoek - Store Review</t>
   </si>
 </sst>
 </file>
@@ -439,10 +457,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -486,7 +505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -500,12 +519,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -525,13 +547,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
@@ -539,12 +564,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -597,7 +625,26 @@
         <v>28</v>
       </c>
     </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E12" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F63356-897E-421B-814D-899D26EC02A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6174F4-BFC1-4914-8B4A-292DBDE5EF34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,17 +13,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Feature</t>
   </si>
@@ -140,6 +145,15 @@
   </si>
   <si>
     <t>Bart van den Hoek - Store Review</t>
+  </si>
+  <si>
+    <t>Reroll below threshold</t>
+  </si>
+  <si>
+    <t>Re-roll dice that are below a certain threshold, like 1 &amp; 2 for great weapon master</t>
+  </si>
+  <si>
+    <t>Sean Steele - ssteele1812@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -457,11 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -505,7 +518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -519,7 +532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -547,7 +560,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -564,7 +577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -625,7 +638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -639,12 +652,19 @@
         <v>38</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E12" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E12" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6174F4-BFC1-4914-8B4A-292DBDE5EF34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA925CCC-F52A-4755-AA88-3AB6CB64A4C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Feature</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Sean Steele - ssteele1812@gmail.com</t>
+  </si>
+  <si>
+    <t>1.5.3</t>
   </si>
 </sst>
 </file>
@@ -471,10 +474,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -518,7 +522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -532,7 +536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -560,7 +564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -577,7 +581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -627,18 +631,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
       </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
       <c r="D11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -664,7 +671,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E12" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}"/>
+  <autoFilter ref="A1:E13" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA925CCC-F52A-4755-AA88-3AB6CB64A4C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79F460C-2680-4371-B812-69FCDA510979}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Feature</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>1.5.3</t>
+  </si>
+  <si>
+    <t>Exploding dice</t>
+  </si>
+  <si>
+    <t>When you roll maximum on a die, keep rolling until you don't</t>
+  </si>
+  <si>
+    <t>Mike Combs - Store review</t>
   </si>
 </sst>
 </file>
@@ -475,10 +484,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,6 +679,17 @@
         <v>41</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E13" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
     <filterColumn colId="2">

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79F460C-2680-4371-B812-69FCDA510979}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468C34F0-3E61-48A0-8B7E-976966E67591}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Feature</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>Mike Combs - Store review</t>
+  </si>
+  <si>
+    <t>Minimum roll value</t>
+  </si>
+  <si>
+    <t>When you roll below a threshold, treat any roll that is less than that threshold as that threshold.</t>
   </si>
 </sst>
 </file>
@@ -484,10 +490,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,6 +696,17 @@
         <v>45</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E13" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
     <filterColumn colId="2">

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468C34F0-3E61-48A0-8B7E-976966E67591}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3184B524-9F0E-4A5E-9679-39F1D4AE1018}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>Feature</t>
   </si>
@@ -172,6 +172,30 @@
   </si>
   <si>
     <t>When you roll below a threshold, treat any roll that is less than that threshold as that threshold.</t>
+  </si>
+  <si>
+    <t>Horizontal custom rolls</t>
+  </si>
+  <si>
+    <t>Having a bunch of the same icon with little text is not an efficient use of space. Convert to horizontal and remove icon.</t>
+  </si>
+  <si>
+    <t>1.5.6</t>
+  </si>
+  <si>
+    <t>Add Genesys dice</t>
+  </si>
+  <si>
+    <t>The game Genesys uses dice. Add them in.</t>
+  </si>
+  <si>
+    <t>Add Fantasy Flight Star Wars dice</t>
+  </si>
+  <si>
+    <t>The game Fantasy Flight Star Wars uses dice. Add them in.</t>
+  </si>
+  <si>
+    <t>Joseph Thompson - Store Review</t>
   </si>
 </sst>
 </file>
@@ -490,10 +514,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,41 +698,83 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
       </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
       <c r="D13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
       </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
       <c r="D14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
       </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
       <c r="D15" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E13" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
+  <autoFilter ref="A1:E18" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3184B524-9F0E-4A5E-9679-39F1D4AE1018}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7530110D-6D1C-49EE-85BD-CAA95DF81BBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Feature</t>
   </si>
@@ -517,7 +517,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,6 +750,9 @@
       <c r="D16" t="s">
         <v>28</v>
       </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7530110D-6D1C-49EE-85BD-CAA95DF81BBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47740ABE-D7FF-4C89-AA4C-CD7255D64FDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>Feature</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>Joseph Thompson - Store Review</t>
+  </si>
+  <si>
+    <t>1.5.7</t>
+  </si>
+  <si>
+    <t>Edit Saved Rolls</t>
+  </si>
+  <si>
+    <t>Allow the user to edit saved rolls easily. Auto move to custom roll tab, and fill out all the die in the roll.</t>
   </si>
 </sst>
 </file>
@@ -514,10 +523,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,11 +756,11 @@
       <c r="B16" t="s">
         <v>49</v>
       </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
       <c r="D16" t="s">
         <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -774,6 +783,17 @@
       </c>
       <c r="D18" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47740ABE-D7FF-4C89-AA4C-CD7255D64FDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18530CBE-4673-4485-BB61-8C85D89F5777}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>Feature</t>
   </si>
@@ -205,6 +205,21 @@
   </si>
   <si>
     <t>Allow the user to edit saved rolls easily. Auto move to custom roll tab, and fill out all the die in the roll.</t>
+  </si>
+  <si>
+    <t>Crit and Crit Fail Sounds</t>
+  </si>
+  <si>
+    <t>When you roll minimum or maximum on a roll, do the willhelm scream or the air horn in order</t>
+  </si>
+  <si>
+    <t>Stefan Titus</t>
+  </si>
+  <si>
+    <t>Roll Again Button</t>
+  </si>
+  <si>
+    <t>Stop the dismissing by random click for the results, make it so you have a roll again, and close buttons.</t>
   </si>
 </sst>
 </file>
@@ -523,10 +538,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,7 +764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -796,8 +811,30 @@
         <v>41</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E18" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
+  <autoFilter ref="A1:E20" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18530CBE-4673-4485-BB61-8C85D89F5777}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404ED864-B171-4285-A51A-C4A249C1A5F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>Feature</t>
   </si>
@@ -210,9 +210,6 @@
     <t>Crit and Crit Fail Sounds</t>
   </si>
   <si>
-    <t>When you roll minimum or maximum on a roll, do the willhelm scream or the air horn in order</t>
-  </si>
-  <si>
     <t>Stefan Titus</t>
   </si>
   <si>
@@ -220,6 +217,12 @@
   </si>
   <si>
     <t>Stop the dismissing by random click for the results, make it so you have a roll again, and close buttons.</t>
+  </si>
+  <si>
+    <t>1.5.8</t>
+  </si>
+  <si>
+    <t>When you roll minimum or maximum on a roll, do the willhelm scream or the air horn sound effects</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,30 +814,33 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
       <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
         <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
         <v>62</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E20" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
+  <autoFilter ref="A1:E21" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404ED864-B171-4285-A51A-C4A249C1A5F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72459399-8E18-41E2-A7F3-CC42134B97AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
   <si>
     <t>Feature</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>When you roll minimum or maximum on a roll, do the willhelm scream or the air horn sound effects</t>
+  </si>
+  <si>
+    <t>Edward Robbins - Store Review</t>
   </si>
 </sst>
 </file>
@@ -781,7 +784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -792,7 +795,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -803,7 +806,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -813,8 +816,11 @@
       <c r="D19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -828,7 +834,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72459399-8E18-41E2-A7F3-CC42134B97AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CC082B-8519-4983-B0A9-538B6F244DD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>Feature</t>
   </si>
@@ -226,6 +226,15 @@
   </si>
   <si>
     <t>Edward Robbins - Store Review</t>
+  </si>
+  <si>
+    <t>Set faces on a die</t>
+  </si>
+  <si>
+    <t>I want to be able to create imbalanced dice, ie 1,1,1,2,2,3</t>
+  </si>
+  <si>
+    <t>Alpha PiPi - Store Review</t>
   </si>
 </sst>
 </file>
@@ -544,10 +553,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,6 +854,17 @@
         <v>28</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E21" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
     <filterColumn colId="2">

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CC082B-8519-4983-B0A9-538B6F244DD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3C0161-3748-48AD-8242-DF3157169C48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>Feature</t>
   </si>
@@ -556,7 +556,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,6 +697,9 @@
       <c r="D9" t="s">
         <v>28</v>
       </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3C0161-3748-48AD-8242-DF3157169C48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CBB8D9-8825-441F-B5D4-89F7F01B6383}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>Feature</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Alpha PiPi - Store Review</t>
+  </si>
+  <si>
+    <t>1.6.0</t>
   </si>
 </sst>
 </file>
@@ -556,7 +559,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,19 +860,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>66</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
       </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
       <c r="D22" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E21" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
+  <autoFilter ref="A1:E22" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CBB8D9-8825-441F-B5D4-89F7F01B6383}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE285D82-811E-4F83-BEBB-51F1BC7C1773}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
   <si>
     <t>Feature</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>1.6.0</t>
+  </si>
+  <si>
+    <t>Edit Dice</t>
+  </si>
+  <si>
+    <t>I misnamed one of my custom dice and just want to tweek the name.</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
   </si>
 </sst>
 </file>
@@ -556,10 +565,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,8 +883,22 @@
         <v>68</v>
       </c>
     </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E22" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
+  <autoFilter ref="A1:E23" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE285D82-811E-4F83-BEBB-51F1BC7C1773}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC79D98C-CFF1-43AB-8579-8CE157ED3690}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>Feature</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>1.6.1</t>
+  </si>
+  <si>
+    <t>1.6.2</t>
+  </si>
+  <si>
+    <t>Add multiples of dice to roll</t>
+  </si>
+  <si>
+    <t>I want to roll 6 d20s each with their own modifier in one roll</t>
   </si>
 </sst>
 </file>
@@ -565,10 +574,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,9 +718,6 @@
       <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -837,6 +843,9 @@
       <c r="B19" t="s">
         <v>58</v>
       </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
       <c r="D19" t="s">
         <v>41</v>
       </c>
@@ -895,6 +904,17 @@
       </c>
       <c r="D23" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC79D98C-CFF1-43AB-8579-8CE157ED3690}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F0CDBA-6A65-41E0-9CA7-C6D48C18C410}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>Feature</t>
   </si>
@@ -574,10 +574,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +590,7 @@
     <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -621,7 +621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -649,7 +649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -662,8 +662,11 @@
       <c r="E5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -680,7 +683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -697,7 +700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -708,7 +711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -719,7 +722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -730,7 +733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -744,7 +747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -758,7 +761,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -772,7 +775,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -786,7 +789,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -800,7 +803,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -836,7 +839,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -918,7 +921,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E23" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
+  <autoFilter ref="A1:E24" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F0CDBA-6A65-41E0-9CA7-C6D48C18C410}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E93367-2075-454B-8BAC-18A0FE401197}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
   <si>
     <t>Feature</t>
   </si>
@@ -256,6 +256,21 @@
   </si>
   <si>
     <t>I want to roll 6 d20s each with their own modifier in one roll</t>
+  </si>
+  <si>
+    <t>Make roll time based</t>
+  </si>
+  <si>
+    <t>Rolls currently are based on a number of frames, not time. Switch to time.</t>
+  </si>
+  <si>
+    <t>Make average more accurate</t>
+  </si>
+  <si>
+    <t>The roll average only looks at the number of dice in a roll, and has nothing to do with all the roll properties</t>
+  </si>
+  <si>
+    <t>1.6.7</t>
   </si>
 </sst>
 </file>
@@ -574,10 +589,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,6 +935,31 @@
         <v>65</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E24" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
     <filterColumn colId="2">

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E93367-2075-454B-8BAC-18A0FE401197}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CC09C1-6F54-4E72-B993-15D591419396}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
   <si>
     <t>Feature</t>
   </si>
@@ -592,7 +592,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,6 +892,9 @@
       <c r="B21" t="s">
         <v>62</v>
       </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CC09C1-6F54-4E72-B993-15D591419396}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91BF3FB-FA2F-49E6-A9FE-B079D001634C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -592,7 +592,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +885,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -938,7 +938,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -964,7 +964,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E24" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
+  <autoFilter ref="A1:E26" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91BF3FB-FA2F-49E6-A9FE-B079D001634C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E95EEB-F3F4-4A9B-93C3-493A91DAE5C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
   <si>
     <t>Feature</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>1.6.7</t>
+  </si>
+  <si>
+    <t>1.7.0</t>
   </si>
 </sst>
 </file>
@@ -592,7 +595,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,6 +674,9 @@
       <c r="B5" t="s">
         <v>21</v>
       </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E95EEB-F3F4-4A9B-93C3-493A91DAE5C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B73FCC-3C27-49AA-902E-2884611249B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
   <si>
     <t>Feature</t>
   </si>
@@ -274,6 +274,27 @@
   </si>
   <si>
     <t>1.7.0</t>
+  </si>
+  <si>
+    <t>Quick category change</t>
+  </si>
+  <si>
+    <t>I want to be able to change my saved roll to have a different existing category easily</t>
+  </si>
+  <si>
+    <t>Compact view - Saved</t>
+  </si>
+  <si>
+    <t>Compact view - Custom</t>
+  </si>
+  <si>
+    <t>Custom roll items take up too much space each, I want more to fit on one screen.</t>
+  </si>
+  <si>
+    <t>Saved roll items take up too much space each, I want more to fit on one screen.</t>
+  </si>
+  <si>
+    <t>Never</t>
   </si>
 </sst>
 </file>
@@ -592,15 +613,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="104.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
@@ -845,6 +866,9 @@
       <c r="B17" t="s">
         <v>52</v>
       </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
       <c r="D17" t="s">
         <v>55</v>
       </c>
@@ -856,6 +880,9 @@
       <c r="B18" t="s">
         <v>54</v>
       </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
       <c r="D18" t="s">
         <v>55</v>
       </c>
@@ -966,6 +993,39 @@
         <v>79</v>
       </c>
       <c r="D26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B73FCC-3C27-49AA-902E-2884611249B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8565F34-874A-4F9C-A0D6-D920AE1D3210}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
   <si>
     <t>Feature</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>Never</t>
+  </si>
+  <si>
+    <t>1.7.2</t>
   </si>
 </sst>
 </file>
@@ -616,7 +619,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -859,7 +862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -873,7 +876,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -996,23 +999,29 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>82</v>
       </c>
       <c r="B27" t="s">
         <v>83</v>
       </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>84</v>
       </c>
       <c r="B28" t="s">
         <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
       </c>
       <c r="D28" t="s">
         <v>28</v>
@@ -1030,7 +1039,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E26" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
+  <autoFilter ref="A1:E29" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8565F34-874A-4F9C-A0D6-D920AE1D3210}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8434490-71F2-41DD-8445-60F5EED548CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="108">
   <si>
     <t>Feature</t>
   </si>
@@ -298,6 +298,60 @@
   </si>
   <si>
     <t>1.7.2</t>
+  </si>
+  <si>
+    <t>Re-Roll from history</t>
+  </si>
+  <si>
+    <t>Create Saved Roll from history</t>
+  </si>
+  <si>
+    <t>Separate roll sounds from crit sounds</t>
+  </si>
+  <si>
+    <t>Individual roll sounds</t>
+  </si>
+  <si>
+    <t>Highlight min/max rolls</t>
+  </si>
+  <si>
+    <t>Better icons for saved rolls</t>
+  </si>
+  <si>
+    <t>Dice with named faces</t>
+  </si>
+  <si>
+    <t>I want the crit sounds to go off, but I do not want to have the roll sounds.</t>
+  </si>
+  <si>
+    <t>Adim - miguellicauco@gmail.com</t>
+  </si>
+  <si>
+    <t>I have a roll in my history that I now want to save, add an option to save it.</t>
+  </si>
+  <si>
+    <t>Andrew Knowles</t>
+  </si>
+  <si>
+    <t>I previously rolled some dice, and I want to be able to roll them again from the history tab</t>
+  </si>
+  <si>
+    <t>Don't lose all rolls on uninstall</t>
+  </si>
+  <si>
+    <t>I want to be able to uninstall and reinstall without losing my rolls. Screw you different development machines!</t>
+  </si>
+  <si>
+    <t>I want to be able to have a sound play when I roll an arbitrary number on an arbitrary dice</t>
+  </si>
+  <si>
+    <t>When I roll min/max I want it to be more visible in the roll display.</t>
+  </si>
+  <si>
+    <t>The temp icons are not great. Find some better ones.</t>
+  </si>
+  <si>
+    <t>I want to have dice with named faces instead of numbered faces</t>
   </si>
 </sst>
 </file>
@@ -616,10 +670,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,6 +1092,94 @@
         <v>28</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E29" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
     <filterColumn colId="2">

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8434490-71F2-41DD-8445-60F5EED548CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9F2FD5-1940-4815-B6C6-B71B1C62FBB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="111">
   <si>
     <t>Feature</t>
   </si>
@@ -352,6 +352,15 @@
   </si>
   <si>
     <t>I want to have dice with named faces instead of numbered faces</t>
+  </si>
+  <si>
+    <t>Allow for different dice images</t>
+  </si>
+  <si>
+    <t>I want to be able to change the images that my dice use.</t>
+  </si>
+  <si>
+    <t>Rae - urbanchika@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -670,23 +679,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.84375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -717,7 +726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -731,7 +740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -745,7 +754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -765,7 +774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -782,7 +791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -799,7 +808,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -810,7 +819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -821,7 +830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -832,7 +841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -846,7 +855,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -860,7 +869,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -874,7 +883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -888,7 +897,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -902,7 +911,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -916,7 +925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -930,7 +939,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -944,7 +953,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -961,7 +970,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -975,7 +984,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -989,7 +998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1003,7 +1012,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -1017,7 +1026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -1028,7 +1037,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -1042,7 +1051,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -1050,10 +1059,10 @@
         <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -1067,7 +1076,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -1081,7 +1090,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -1092,7 +1101,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -1103,7 +1112,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -1114,7 +1123,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -1125,7 +1134,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -1136,7 +1145,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -1147,7 +1156,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -1158,7 +1167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -1169,7 +1178,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -1178,6 +1187,17 @@
       </c>
       <c r="D37" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9F2FD5-1940-4815-B6C6-B71B1C62FBB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FCDFBF-03BB-41A8-968F-B58C2F9DCB84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
   <si>
     <t>Feature</t>
   </si>
@@ -354,13 +354,19 @@
     <t>I want to have dice with named faces instead of numbered faces</t>
   </si>
   <si>
-    <t>Allow for different dice images</t>
-  </si>
-  <si>
     <t>I want to be able to change the images that my dice use.</t>
   </si>
   <si>
     <t>Rae - urbanchika@gmail.com</t>
+  </si>
+  <si>
+    <t>Dice icon themes</t>
+  </si>
+  <si>
+    <t>I want to have all of my dice fit a set theme and change as a set.</t>
+  </si>
+  <si>
+    <t>Override dice icon</t>
   </si>
 </sst>
 </file>
@@ -679,10 +685,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1130,6 +1136,9 @@
       <c r="B32" t="s">
         <v>97</v>
       </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
       <c r="D32" t="s">
         <v>98</v>
       </c>
@@ -1163,6 +1172,9 @@
       <c r="B35" t="s">
         <v>106</v>
       </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
       <c r="D35" t="s">
         <v>28</v>
       </c>
@@ -1191,13 +1203,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s">
         <v>108</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>109</v>
       </c>
-      <c r="D38" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FCDFBF-03BB-41A8-968F-B58C2F9DCB84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$39</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="115">
   <si>
     <t>Feature</t>
   </si>
@@ -367,13 +366,19 @@
   </si>
   <si>
     <t>Override dice icon</t>
+  </si>
+  <si>
+    <t>1.7.7</t>
+  </si>
+  <si>
+    <t>1.7.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,7 +469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -499,7 +504,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -676,32 +681,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3828125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -732,7 +737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -746,7 +751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -760,7 +765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -780,7 +785,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -797,7 +802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -814,7 +819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -825,7 +830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -836,7 +841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -847,7 +852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -861,7 +866,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -875,7 +880,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -889,7 +894,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -903,7 +908,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -917,7 +922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -931,7 +936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" hidden="1">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -945,7 +950,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" hidden="1">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -959,7 +964,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -976,7 +981,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -990,7 +995,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" hidden="1">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1004,7 +1009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" hidden="1">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1018,7 +1023,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" hidden="1">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -1032,7 +1037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -1043,7 +1048,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" hidden="1">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -1057,7 +1062,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -1068,7 +1073,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" hidden="1">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -1082,7 +1087,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" hidden="1">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -1096,7 +1101,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -1107,7 +1112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -1118,7 +1123,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -1129,7 +1134,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" hidden="1">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -1143,7 +1148,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -1154,7 +1159,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -1165,7 +1170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" hidden="1">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -1179,7 +1184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -1190,18 +1195,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>102</v>
       </c>
       <c r="B37" t="s">
         <v>103</v>
       </c>
+      <c r="C37" t="s">
+        <v>114</v>
+      </c>
       <c r="D37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -1212,19 +1220,22 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" hidden="1">
       <c r="A39" t="s">
         <v>110</v>
       </c>
       <c r="B39" t="s">
         <v>111</v>
       </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
       <c r="D39" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E29" xr:uid="{B4F77D32-E558-4F22-95C5-F86840C342A2}">
+  <autoFilter ref="A1:E39">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$41</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="121">
   <si>
     <t>Feature</t>
   </si>
@@ -185,15 +185,9 @@
     <t>Add Genesys dice</t>
   </si>
   <si>
-    <t>The game Genesys uses dice. Add them in.</t>
-  </si>
-  <si>
     <t>Add Fantasy Flight Star Wars dice</t>
   </si>
   <si>
-    <t>The game Fantasy Flight Star Wars uses dice. Add them in.</t>
-  </si>
-  <si>
     <t>Joseph Thompson - Store Review</t>
   </si>
   <si>
@@ -293,9 +287,6 @@
     <t>Saved roll items take up too much space each, I want more to fit on one screen.</t>
   </si>
   <si>
-    <t>Never</t>
-  </si>
-  <si>
     <t>1.7.2</t>
   </si>
   <si>
@@ -371,7 +362,34 @@
     <t>1.7.7</t>
   </si>
   <si>
-    <t>1.7.6</t>
+    <t>Keep High/Low</t>
+  </si>
+  <si>
+    <t>I have a variable number of dice rolled but only ever want to keep a set number</t>
+  </si>
+  <si>
+    <t>michael - werbiskisfamily@gmail.com</t>
+  </si>
+  <si>
+    <t>iOS support</t>
+  </si>
+  <si>
+    <t>I want to use the dice roller you made and put it on my iOS supported device</t>
+  </si>
+  <si>
+    <t>All my iOS friends</t>
+  </si>
+  <si>
+    <t>forlasanto - Reddit /r/rpg</t>
+  </si>
+  <si>
+    <t>IsaacNewtonsAndroid - /r/rpg</t>
+  </si>
+  <si>
+    <t>The game Genesys uses dice. Add them in. Use Symbols preferably.</t>
+  </si>
+  <si>
+    <t>The game Fantasy Flight Star Wars uses dice. Add them in. Use Symbols preferably.</t>
   </si>
 </sst>
 </file>
@@ -681,7 +699,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -690,10 +708,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -773,7 +791,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -819,12 +837,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -930,312 +951,346 @@
         <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>51</v>
       </c>
       <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>52</v>
       </c>
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1">
+      <c r="A19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1">
-      <c r="A19" t="s">
-        <v>57</v>
-      </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1">
+      <c r="A21" t="s">
         <v>59</v>
       </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1">
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
         <v>66</v>
       </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:6" hidden="1">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
         <v>69</v>
       </c>
-      <c r="D22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1">
-      <c r="A23" t="s">
+      <c r="C23" t="s">
         <v>70</v>
-      </c>
-      <c r="B23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" t="s">
-        <v>72</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1">
+      <c r="A25" t="s">
         <v>74</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>75</v>
       </c>
-      <c r="D24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1">
-      <c r="A25" t="s">
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
         <v>76</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>77</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1">
+      <c r="A27" t="s">
         <v>80</v>
       </c>
-      <c r="D25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1">
-      <c r="A27" t="s">
-        <v>82</v>
-      </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
         <v>90</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>101</v>
-      </c>
-      <c r="D31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1">
-      <c r="A32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" t="s">
-        <v>104</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1">
+    <row r="35" spans="1:6" hidden="1">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>95</v>
+      </c>
+      <c r="E36" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" t="s">
         <v>112</v>
       </c>
-      <c r="B38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" hidden="1">
-      <c r="A39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D40" t="s">
         <v>113</v>
       </c>
-      <c r="D39" t="s">
-        <v>109</v>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E39">
+  <autoFilter ref="A1:E41">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="122">
   <si>
     <t>Feature</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>The game Fantasy Flight Star Wars uses dice. Add them in. Use Symbols preferably.</t>
+  </si>
+  <si>
+    <t>1.7.8</t>
   </si>
 </sst>
 </file>
@@ -711,7 +714,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1231,12 +1234,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" hidden="1">
       <c r="A37" t="s">
         <v>99</v>
       </c>
       <c r="B37" t="s">
         <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
       </c>
       <c r="D37" t="s">
         <v>28</v>
@@ -1273,6 +1279,9 @@
       </c>
       <c r="B40" t="s">
         <v>112</v>
+      </c>
+      <c r="C40" t="s">
+        <v>121</v>
       </c>
       <c r="D40" t="s">
         <v>113</v>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="123">
   <si>
     <t>Feature</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>1.7.8</t>
+  </si>
+  <si>
+    <t>1.8.0</t>
   </si>
 </sst>
 </file>
@@ -702,7 +705,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -714,7 +717,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -861,6 +864,9 @@
       <c r="B9" t="s">
         <v>27</v>
       </c>
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
       <c r="D9" t="s">
         <v>28</v>
       </c>
@@ -1074,6 +1080,9 @@
       <c r="B24" t="s">
         <v>73</v>
       </c>
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
       <c r="D24" t="s">
         <v>63</v>
       </c>
@@ -1273,7 +1282,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" hidden="1">
       <c r="A40" t="s">
         <v>111</v>
       </c>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2099475-4BCE-45F7-91BC-F65B474D1FC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,14 +14,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$41</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -401,8 +397,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,32 +701,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.84375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -761,7 +757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -775,7 +771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -789,7 +785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -809,7 +805,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -826,7 +822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -843,7 +839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -857,7 +853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -871,7 +867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -882,7 +878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -896,7 +892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -910,7 +906,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -924,7 +920,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -938,7 +934,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -952,7 +948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -966,7 +962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -983,7 +979,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1000,7 +996,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1017,7 +1013,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1031,7 +1027,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -1045,7 +1041,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -1059,7 +1055,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -1073,7 +1069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -1087,7 +1083,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -1101,7 +1097,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -1115,7 +1111,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -1129,7 +1125,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -1143,7 +1139,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -1154,7 +1150,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -1165,7 +1161,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -1176,7 +1172,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -1190,7 +1186,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -1201,7 +1197,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -1212,7 +1208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -1226,7 +1222,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -1243,7 +1239,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -1257,7 +1253,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -1268,7 +1264,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -1282,7 +1278,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -1296,7 +1292,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>114</v>
       </c>
@@ -1308,7 +1304,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E41">
+  <autoFilter ref="A1:E41" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2099475-4BCE-45F7-91BC-F65B474D1FC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,8 +13,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$41</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="126">
   <si>
     <t>Feature</t>
   </si>
@@ -392,13 +391,22 @@
   </si>
   <si>
     <t>1.8.0</t>
+  </si>
+  <si>
+    <t>In-App purchases</t>
+  </si>
+  <si>
+    <t>1.8.5</t>
+  </si>
+  <si>
+    <t>I want to be able to have enough money to fund the iOS version of the app</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,32 +709,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -740,7 +748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -757,7 +765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -771,7 +779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -785,7 +793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -805,7 +813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -822,7 +830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -839,7 +847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -853,7 +861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -867,7 +875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -878,7 +886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -892,7 +900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -906,7 +914,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -920,7 +928,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -934,7 +942,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -948,7 +956,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -962,7 +970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -979,7 +987,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -996,7 +1004,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1013,7 +1021,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1027,7 +1035,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" hidden="1">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -1041,7 +1049,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -1055,7 +1063,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" hidden="1">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -1069,7 +1077,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" hidden="1">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -1083,7 +1091,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" hidden="1">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -1097,7 +1105,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -1111,7 +1119,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" hidden="1">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -1125,7 +1133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -1139,7 +1147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -1150,7 +1158,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -1161,7 +1169,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -1172,7 +1180,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" hidden="1">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -1186,7 +1194,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -1197,7 +1205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -1208,7 +1216,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" hidden="1">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -1222,7 +1230,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -1239,7 +1247,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" hidden="1">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -1253,7 +1261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -1264,7 +1272,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" hidden="1">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -1278,7 +1286,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" hidden="1">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -1292,7 +1300,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>114</v>
       </c>
@@ -1303,8 +1311,22 @@
         <v>116</v>
       </c>
     </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E41" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:E41">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>

--- a/Feature_Tracker.xlsx
+++ b/Feature_Tracker.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856C78C9-C045-459B-B7B7-9791A7A57E81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,8 +14,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$41</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="129">
   <si>
     <t>Feature</t>
   </si>
@@ -400,13 +401,22 @@
   </si>
   <si>
     <t>I want to be able to have enough money to fund the iOS version of the app</t>
+  </si>
+  <si>
+    <t>Subcategories</t>
+  </si>
+  <si>
+    <t>I want to put categories in my categories so that my categories can have categories</t>
+  </si>
+  <si>
+    <t>Huskywolf - Store Review</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,32 +719,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -748,7 +758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -765,7 +775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -779,7 +789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -793,7 +803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -813,7 +823,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -830,7 +840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -847,7 +857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -861,7 +871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -875,7 +885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -886,7 +896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -900,7 +910,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -914,7 +924,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -928,7 +938,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -942,7 +952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -956,7 +966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -970,7 +980,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -987,7 +997,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1004,7 +1014,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1021,7 +1031,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1035,7 +1045,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -1049,7 +1059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -1063,7 +1073,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -1077,7 +1087,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -1091,7 +1101,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -1105,7 +1115,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -1119,7 +1129,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -1133,7 +1143,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -1147,7 +1157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -1158,7 +1168,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -1169,7 +1179,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -1180,7 +1190,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -1194,7 +1204,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -1205,7 +1215,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -1216,7 +1226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -1230,7 +1240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -1247,7 +1257,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -1261,7 +1271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -1272,7 +1282,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -1286,7 +1296,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -1300,7 +1310,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>114</v>
       </c>
@@ -1311,7 +1321,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>123</v>
       </c>
@@ -1325,8 +1335,19 @@
         <v>28</v>
       </c>
     </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E41">
+  <autoFilter ref="A1:E41" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>
